--- a/外链/json format/www.freeformatter.com-json-formatter.html/www.freeformatter.com-backlinks-prefix-live-05-Feb-2021.xlsx
+++ b/外链/json format/www.freeformatter.com-json-formatter.html/www.freeformatter.com-backlinks-prefix-live-05-Feb-2021.xlsx
@@ -4397,10 +4397,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -4412,21 +4412,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4434,7 +4434,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4457,14 +4471,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4495,30 +4518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4541,7 +4541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4549,7 +4549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4576,7 +4576,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4588,49 +4678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4642,43 +4696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4702,37 +4726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4744,19 +4738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4780,16 +4780,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4801,6 +4801,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4823,8 +4853,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4832,38 +4862,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4875,10 +4875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4887,19 +4887,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4908,112 +4908,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5377,8 +5377,8 @@
   <sheetPr/>
   <dimension ref="A1:S917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6027,147 +6027,147 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
+    <row r="14" s="1" customFormat="1" spans="1:19">
+      <c r="A14" s="1">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>90</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>66</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>34</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>3</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
+    <row r="15" s="2" customFormat="1" spans="1:19">
+      <c r="A15" s="2">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>90</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>105</v>
       </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="S15">
+      <c r="M15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16">
+    <row r="16" s="2" customFormat="1" spans="1:19">
+      <c r="A16" s="2">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>90</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>105</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="O16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>7</v>
       </c>
     </row>
@@ -6218,1979 +6218,1979 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18">
+    <row r="18" s="2" customFormat="1" spans="1:19">
+      <c r="A18" s="2">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>79</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O18" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19">
+      <c r="O18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:19">
+      <c r="A19" s="2">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>90</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>13</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>79</v>
       </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="2">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="M19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20">
+    <row r="20" s="2" customFormat="1" spans="1:19">
+      <c r="A20" s="2">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>90</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>13</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>105</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M20" t="s">
-        <v>41</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="S20">
+      <c r="M20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21">
+    <row r="21" s="2" customFormat="1" spans="1:19">
+      <c r="A21" s="2">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>90</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>13</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>132</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>4</v>
       </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="S21">
+      <c r="O21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22">
+    <row r="22" s="2" customFormat="1" spans="1:19">
+      <c r="A22" s="2">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>90</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>132</v>
       </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="H22" s="2">
+        <v>7</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="S22">
+      <c r="O22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23">
+    <row r="23" s="2" customFormat="1" spans="1:19">
+      <c r="A23" s="2">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
         <v>90</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>13</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>132</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="S23">
+      <c r="O23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24">
+    <row r="24" s="2" customFormat="1" spans="1:19">
+      <c r="A24" s="2">
         <v>26</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>24</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>35</v>
       </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" t="s">
-        <v>95</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="I24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="O24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25">
+    <row r="25" s="2" customFormat="1" spans="1:19">
+      <c r="A25" s="2">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>13</v>
       </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>24</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>36</v>
       </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O25" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="O25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26">
+    <row r="26" s="2" customFormat="1" spans="1:19">
+      <c r="A26" s="2">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>86</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>13</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>92</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>166</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M26" t="s">
-        <v>41</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27">
+      <c r="M26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:19">
+      <c r="A27" s="2">
         <v>29</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>77</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>13</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>90</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>63</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O27" t="s">
-        <v>25</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+      <c r="O27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28">
+    <row r="28" s="2" customFormat="1" spans="1:19">
+      <c r="A28" s="2">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>90</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>12</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>55</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>261</v>
       </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="I28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28">
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29">
+    <row r="29" s="2" customFormat="1" spans="1:19">
+      <c r="A29" s="2">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>86</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>91</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>190</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29">
+      <c r="M29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30">
+    <row r="30" s="2" customFormat="1" spans="1:19">
+      <c r="A30" s="2">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>86</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>94</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>189</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M30" t="s">
-        <v>41</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31">
-        <v>33</v>
-      </c>
-      <c r="B31">
+      <c r="M30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:19">
+      <c r="A31" s="2">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
         <v>86</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>92</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>185</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M31" t="s">
-        <v>41</v>
-      </c>
-      <c r="O31" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31">
+      <c r="M31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32">
+    <row r="32" s="2" customFormat="1" spans="1:19">
+      <c r="A32" s="2">
         <v>34</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>86</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>92</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>190</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33">
+      <c r="M32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:19">
+      <c r="A33" s="2">
         <v>35</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>86</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>12</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>92</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>189</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M33" t="s">
-        <v>41</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34">
+      <c r="M33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:19">
+      <c r="A34" s="2">
         <v>36</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>86</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>12</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>92</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <v>166</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M34" t="s">
-        <v>41</v>
-      </c>
-      <c r="O34" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35">
+      <c r="M34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:19">
+      <c r="A35" s="2">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>86</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>92</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>189</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M35" t="s">
-        <v>41</v>
-      </c>
-      <c r="O35" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36">
+      <c r="M35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:19">
+      <c r="A36" s="2">
         <v>38</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>86</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>92</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>189</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O36" t="s">
-        <v>25</v>
-      </c>
-      <c r="S36">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37">
+      <c r="M36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:19">
+      <c r="A37" s="2">
         <v>39</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>86</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>12</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>92</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>166</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M37" t="s">
-        <v>41</v>
-      </c>
-      <c r="O37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S37">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38">
+      <c r="M37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:19">
+      <c r="A38" s="2">
         <v>40</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>86</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>92</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>189</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M38" t="s">
-        <v>41</v>
-      </c>
-      <c r="O38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39">
-        <v>41</v>
-      </c>
-      <c r="B39">
+      <c r="M38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:19">
+      <c r="A39" s="2">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
         <v>86</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>12</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>92</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>189</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M39" t="s">
-        <v>41</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40">
+      <c r="M39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:19">
+      <c r="A40" s="2">
         <v>42</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>86</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>12</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>92</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>166</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M40" t="s">
-        <v>41</v>
-      </c>
-      <c r="O40" t="s">
-        <v>25</v>
-      </c>
-      <c r="S40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41">
+      <c r="M40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:19">
+      <c r="A41" s="2">
         <v>43</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>86</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>12</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>92</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>166</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O41" t="s">
-        <v>25</v>
-      </c>
-      <c r="S41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42">
+      <c r="M41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:19">
+      <c r="A42" s="2">
         <v>44</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>86</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>92</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>189</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M42" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
-      </c>
-      <c r="S42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43">
+      <c r="M42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="1:19">
+      <c r="A43" s="2">
         <v>45</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>86</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>92</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>189</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M43" t="s">
-        <v>41</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
-      </c>
-      <c r="S43">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44">
+      <c r="M43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:19">
+      <c r="A44" s="2">
         <v>46</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>86</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>12</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>92</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>166</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M44" t="s">
-        <v>41</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45">
+      <c r="M44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:19">
+      <c r="A45" s="2">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>86</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>12</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>92</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <v>166</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M45" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45" t="s">
-        <v>25</v>
-      </c>
-      <c r="S45">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46">
+      <c r="M45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="1:19">
+      <c r="A46" s="2">
         <v>48</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>86</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>12</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>92</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>189</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M46" t="s">
-        <v>41</v>
-      </c>
-      <c r="O46" t="s">
-        <v>25</v>
-      </c>
-      <c r="S46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47">
+      <c r="M46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:19">
+      <c r="A47" s="2">
         <v>49</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>86</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>12</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>92</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <v>190</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M47" t="s">
-        <v>41</v>
-      </c>
-      <c r="O47" t="s">
-        <v>25</v>
-      </c>
-      <c r="S47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
-      <c r="A48">
+      <c r="M47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="1:19">
+      <c r="A48" s="2">
         <v>50</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>86</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>91</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <v>190</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O48" t="s">
-        <v>25</v>
-      </c>
-      <c r="S48">
+      <c r="M48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49">
+    <row r="49" s="2" customFormat="1" spans="1:19">
+      <c r="A49" s="2">
         <v>51</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>86</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>12</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>91</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="2">
         <v>190</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M49" t="s">
-        <v>41</v>
-      </c>
-      <c r="O49" t="s">
-        <v>25</v>
-      </c>
-      <c r="S49">
+      <c r="M49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50">
+    <row r="50" s="2" customFormat="1" spans="1:19">
+      <c r="A50" s="2">
         <v>52</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>86</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>91</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>190</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M50" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" t="s">
-        <v>25</v>
-      </c>
-      <c r="S50">
+      <c r="M50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51">
+    <row r="51" s="2" customFormat="1" spans="1:19">
+      <c r="A51" s="2">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>86</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>12</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>91</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="2">
         <v>190</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M51" t="s">
-        <v>41</v>
-      </c>
-      <c r="O51" t="s">
-        <v>25</v>
-      </c>
-      <c r="S51">
+      <c r="M51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="A52">
+    <row r="52" s="2" customFormat="1" spans="1:19">
+      <c r="A52" s="2">
         <v>54</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>86</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>12</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>91</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <v>190</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O52" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52">
+      <c r="M52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53">
+    <row r="53" s="2" customFormat="1" spans="1:19">
+      <c r="A53" s="2">
         <v>55</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>86</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>12</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>91</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <v>190</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O53" t="s">
-        <v>25</v>
-      </c>
-      <c r="S53">
+      <c r="M53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
-      <c r="A54">
+    <row r="54" s="2" customFormat="1" spans="1:19">
+      <c r="A54" s="2">
         <v>56</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>86</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>12</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>91</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <v>190</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M54" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" t="s">
-        <v>25</v>
-      </c>
-      <c r="S54">
+      <c r="M54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55">
+    <row r="55" s="2" customFormat="1" spans="1:19">
+      <c r="A55" s="2">
         <v>57</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>86</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>12</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>91</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <v>190</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M55" t="s">
-        <v>41</v>
-      </c>
-      <c r="O55" t="s">
-        <v>25</v>
-      </c>
-      <c r="S55">
+      <c r="M55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
-      <c r="A56">
+    <row r="56" s="2" customFormat="1" spans="1:19">
+      <c r="A56" s="2">
         <v>58</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>86</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>91</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <v>190</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M56" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="S56">
+      <c r="M56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
-      <c r="A57">
+    <row r="57" s="2" customFormat="1" spans="1:19">
+      <c r="A57" s="2">
         <v>59</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>86</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>12</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>91</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>190</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M57" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" t="s">
-        <v>25</v>
-      </c>
-      <c r="S57">
+      <c r="M57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="A58">
+    <row r="58" s="2" customFormat="1" spans="1:19">
+      <c r="A58" s="2">
         <v>60</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>86</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>12</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>91</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>190</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M58" t="s">
-        <v>41</v>
-      </c>
-      <c r="O58" t="s">
-        <v>25</v>
-      </c>
-      <c r="S58">
+      <c r="M58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="A59">
+    <row r="59" s="2" customFormat="1" spans="1:19">
+      <c r="A59" s="2">
         <v>61</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>86</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>12</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>91</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <v>190</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M59" t="s">
-        <v>41</v>
-      </c>
-      <c r="O59" t="s">
-        <v>25</v>
-      </c>
-      <c r="S59">
+      <c r="M59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
-      <c r="A60">
+    <row r="60" s="2" customFormat="1" spans="1:19">
+      <c r="A60" s="2">
         <v>62</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>86</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>12</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>91</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <v>190</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M60" t="s">
-        <v>41</v>
-      </c>
-      <c r="O60" t="s">
-        <v>25</v>
-      </c>
-      <c r="S60">
+      <c r="M60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
-      <c r="A61">
+    <row r="61" s="2" customFormat="1" spans="1:19">
+      <c r="A61" s="2">
         <v>63</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>86</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>91</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <v>190</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="S61">
+      <c r="M61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
-      <c r="A62">
+    <row r="62" s="2" customFormat="1" spans="1:19">
+      <c r="A62" s="2">
         <v>64</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>86</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>12</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>91</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="2">
         <v>190</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M62" t="s">
-        <v>41</v>
-      </c>
-      <c r="O62" t="s">
-        <v>25</v>
-      </c>
-      <c r="S62">
+      <c r="M62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
-      <c r="A63">
+    <row r="63" s="2" customFormat="1" spans="1:19">
+      <c r="A63" s="2">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>86</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>12</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>91</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <v>190</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M63" t="s">
-        <v>41</v>
-      </c>
-      <c r="O63" t="s">
-        <v>25</v>
-      </c>
-      <c r="S63">
+      <c r="M63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
-      <c r="A64">
+    <row r="64" s="2" customFormat="1" spans="1:19">
+      <c r="A64" s="2">
         <v>66</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>86</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>12</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>91</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="2">
         <v>190</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M64" t="s">
-        <v>41</v>
-      </c>
-      <c r="O64" t="s">
-        <v>25</v>
-      </c>
-      <c r="S64">
+      <c r="M64" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
-      <c r="A65">
+    <row r="65" s="2" customFormat="1" spans="1:19">
+      <c r="A65" s="2">
         <v>67</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>86</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>12</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>91</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <v>190</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M65" t="s">
-        <v>41</v>
-      </c>
-      <c r="O65" t="s">
-        <v>25</v>
-      </c>
-      <c r="S65">
+      <c r="M65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
-      <c r="A66">
+    <row r="66" s="2" customFormat="1" spans="1:19">
+      <c r="A66" s="2">
         <v>68</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>86</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>12</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>93</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <v>169</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M66" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" t="s">
-        <v>25</v>
-      </c>
-      <c r="S66">
+      <c r="M66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="2">
         <v>26</v>
       </c>
     </row>
